--- a/biology/Zoologie/Aegaeobuthus_nigrocinctus/Aegaeobuthus_nigrocinctus.xlsx
+++ b/biology/Zoologie/Aegaeobuthus_nigrocinctus/Aegaeobuthus_nigrocinctus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegaeobuthus nigrocinctus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Liban, en Israël, en Syrie et en Turquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Liban, en Israël, en Syrie et en Turquie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Fet, Hendrixson, Sissom et Levy en 2000 mesure 59,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Fet, Hendrixson, Sissom et Levy en 2000 mesure 59,0 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (06/09/2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (06/09/2020) :
 Aegaeobuthus nigrocinctus nigrocinctus (Ehrenberg, 1828)
 Aegaeobuthus nigrocinctus bishri (Lourenço, 2020) du Jebel Bishri en Syrie</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Androctonus nigrocinctus par Ehrenberg en 1828. Elle est placée en synonymie avec Buthus gibbosus par Kraepelin en 1891[4]. Elle est relevée de synonymie dans le genre Mesobuthus par Fet, Hendrixson, Sissom et Levy en 2000[2]. Elle est placée dans le genre Aegaeobuthus par Kovařík en 2019[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Androctonus nigrocinctus par Ehrenberg en 1828. Elle est placée en synonymie avec Buthus gibbosus par Kraepelin en 1891. Elle est relevée de synonymie dans le genre Mesobuthus par Fet, Hendrixson, Sissom et Levy en 2000. Elle est placée dans le genre Aegaeobuthus par Kovařík en 2019.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hemprich &amp; Ehrenberg, 1828 : Zoologica II. Arachnoidea. Symbolae physicae seu icones et descriptiones animalium evertebratorum sepositis insectis quae ex itinere per Africam borealem et Asiam occidentalem. Berolini, Officina Academica, (texte intégral).
 Lourenço, 2020 : « A possible relict population of Mesobuthus (Aegaeobuthus?) nigrocinctus (Ehrenberg, 1828) in the Bishri Mountains of Syria (Scorpiones: Buthidae). » Serket, vol. 17, no 2, p. 77-86.</t>
